--- a/biology/Médecine/1256_en_santé_et_médecine/1256_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1256_en_santé_et_médecine/1256_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1256 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Renouvelant les ordres déjà donnés par Alexandre III en 1160, le pape Grégoire IX exige que « nul de s'ingère de pratiquer la médecine […] sans avoir été suffisamment approuvé par les maîtres docteurs des universités[2] ».
-Un hôpital placé sous l'invocation de sainte Marie-Madeleine (Hospital of St. Mary Magdalen) est attesté à Dartford dans le Kent, en Angleterre[3].
-1254-1256 : dans son Commentaire sur les Sentences de Pierre Lombard[4], Thomas d'Aquin qualifie la lèpre de « maladie contagieuse » (morbus contagiosus), et ce « dans un contexte où il ne s'agit pas seulement de contagion au sens moral, mais bien, aussi, de la transmission d'une maladie[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Renouvelant les ordres déjà donnés par Alexandre III en 1160, le pape Grégoire IX exige que « nul de s'ingère de pratiquer la médecine […] sans avoir été suffisamment approuvé par les maîtres docteurs des universités ».
+Un hôpital placé sous l'invocation de sainte Marie-Madeleine (Hospital of St. Mary Magdalen) est attesté à Dartford dans le Kent, en Angleterre.
+1254-1256 : dans son Commentaire sur les Sentences de Pierre Lombard, Thomas d'Aquin qualifie la lèpre de « maladie contagieuse » (morbus contagiosus), et ce « dans un contexte où il ne s'agit pas seulement de contagion au sens moral, mais bien, aussi, de la transmission d'une maladie ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin italien Aldebrandin de Sienne compose son Livre de physique (plus connu sous le titre de Régime du corps), premier ouvrage de diététique rédigé en langue vulgaire[6],[7].
-Halifa d'Alep achève son Livre suffisant dans l'art de l'oculiste[8].
-Vers 1250-1256 : Giordano Ruffo (c.1200-c.1256) rédige son De medicina equorum (« De la médecine des chevaux »), œuvre  qui sera très largement diffusée et qui « marque le renouveau de la médecine vétérinaire médiévale[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin italien Aldebrandin de Sienne compose son Livre de physique (plus connu sous le titre de Régime du corps), premier ouvrage de diététique rédigé en langue vulgaire,.
+Halifa d'Alep achève son Livre suffisant dans l'art de l'oculiste.
+Vers 1250-1256 : Giordano Ruffo (c.1200-c.1256) rédige son De medicina equorum (« De la médecine des chevaux »), œuvre  qui sera très largement diffusée et qui « marque le renouveau de la médecine vétérinaire médiévale ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. « Marie, barbière, censière [de l'abbaye] de Saint-Spire[10] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. « Marie, barbière, censière [de l'abbaye] de Saint-Spire ».</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ibn al-Sarrag (mort en 1329), médecin de Grenade « réfugié au Maroc pour des raisons politiques, auteur de plusieurs ouvrages qui sont tous perdus[11] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ibn al-Sarrag (mort en 1329), médecin de Grenade « réfugié au Maroc pour des raisons politiques, auteur de plusieurs ouvrages qui sont tous perdus ».</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1256_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1256_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,10 +655,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Giordano Ruffo (né vers 1200), hippiatre italien au service de Frédéric II, auteur du De medicina equorum (« De la médecine des chevaux) (c.1256[9]) ».
-Jacob Anatoli (en) (né vers 1194), médecin juif de Marseille, auteur en 1231-1232 d'une traduction de l'arabe en hébreu des commentaires par Averroès de la Logique d'Aristote et de l'Introduction aux Catégories d'Aristote de Porphyre[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Giordano Ruffo (né vers 1200), hippiatre italien au service de Frédéric II, auteur du De medicina equorum (« De la médecine des chevaux) (c.1256) ».
+Jacob Anatoli (en) (né vers 1194), médecin juif de Marseille, auteur en 1231-1232 d'une traduction de l'arabe en hébreu des commentaires par Averroès de la Logique d'Aristote et de l'Introduction aux Catégories d'Aristote de Porphyre.</t>
         </is>
       </c>
     </row>
